--- a/biology/Botanique/Rutidea/Rutidea.xlsx
+++ b/biology/Botanique/Rutidea/Rutidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rutidea est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2017) :
 Rutidea decorticata Hiern
 Rutidea dupuisii De Wild.
 Rutidea ferruginea Hiern
@@ -561,7 +577,7 @@
 Rutidea smithii Hiern
 Rutidea tenuicaulis K.Krause
 Rutidea vanderystii Wernham
-Selon World Checklist of Selected Plant Families (WCSP)  (1 septembre 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (1 septembre 2017) :
 Rutidea decorticata Hiern (1877)
 Rutidea dupuisii De Wild., Ann. Mus. Congo Belge, Bot., sér. 5 (1907)
 sous-espèce Rutidea dupuisii subsp. dupuisii
@@ -591,7 +607,7 @@
 sous-espèce Rutidea smithii subsp. submontana (K.Krause) Bridson (1978)
 Rutidea tenuicaulis K.Krause (1917)
 Rutidea vanderystii Wernham (1918)
-Selon NCBI  (1 septembre 2017)[4] :
+Selon NCBI  (1 septembre 2017) :
 Rutidea decorticata
 Rutidea dupuisii
 Rutidea ferruginea
@@ -601,7 +617,7 @@
 Rutidea orientalis
 Rutidea parviflora
 Rutidea seretii
-Selon The Plant List            (1 septembre 2017)[5] :
+Selon The Plant List            (1 septembre 2017) :
 Rutidea decorticata Hiern
 Rutidea dupuisii De Wild.
 Rutidea ferruginea Hiern
@@ -623,7 +639,7 @@
 Rutidea smithii Hiern
 Rutidea tenuicaulis K.Krause
 Rutidea vanderystii Wernham
-Selon Tropicos                                           (1 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Rutidea albiflora K. Schum.
 Rutidea batesii Wernham
 Rutidea brachyantha K. Schum.
